--- a/個人課表/D6543203.xlsx
+++ b/個人課表/D6543203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08671-567A-4940-98BC-94A3AED1FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E9D29-0B86-4093-B2F7-DEC2C32BB33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
